--- a/data/trans_camb/P25A_10_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,91</t>
+          <t>-3,31; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,97</t>
+          <t>-4,67; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,63</t>
+          <t>-2,21; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,23</t>
+          <t>-5,25; 0,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,14</t>
+          <t>-4,64; 1,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,08</t>
+          <t>0,66; 11,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 0,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 0,21</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 6,66</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-45,72%</t>
+          <t>-20,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,87%</t>
+          <t>-54,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-44,3%</t>
+          <t>-46,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,03%</t>
+          <t>170,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-46,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-61,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>134,38%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 32,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 21,43</t>
+          <t>-100,0; 80,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 15,59</t>
+          <t>-87,31; 126,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,94; 2,47</t>
+          <t>-1,03; 625,36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-83,57; 97,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-92,71; 37,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 502,14</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,25</t>
+          <t>-0,58; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,57</t>
+          <t>-0,2; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,86</t>
+          <t>-0,56; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,0</t>
+          <t>-5,03; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,1</t>
+          <t>-4,98; 4,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,25</t>
+          <t>-3,71; 8,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 3,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 5,17</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>257,91%</t>
+          <t>187,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>308,99%</t>
+          <t>286,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>299,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>-13,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51,77%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 120,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 293,23</t>
+          <t>-75,9; 194,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 137,96</t>
+          <t>-77,28; 177,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 250,14</t>
+          <t>-63,1; 359,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-71,26; 167,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-55,58; 199,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 307,54</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 6,96</t>
+          <t>-12,84; 8,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,0</t>
+          <t>-16,71; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,56</t>
+          <t>-16,71; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,13</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,12</t>
+          <t>0,0; 16,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 3,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 2,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 3,98</t>
         </is>
       </c>
     </row>
@@ -989,7 +1170,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>175,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-30,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,5</t>
+          <t>-1,55; 2,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,83</t>
+          <t>-2,09; 1,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,92</t>
+          <t>-1,23; 2,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,07</t>
+          <t>-3,68; 0,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,64</t>
+          <t>-3,29; 1,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,94</t>
+          <t>0,48; 7,41</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 0,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 0,76</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 4,47</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>-27,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-37,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>105,07%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>86,52%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 311,38</t>
+          <t>-79,16; 625,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 181,81</t>
+          <t>-100,0; 490,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 34,14</t>
+          <t>-78,35; 657,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 78,08</t>
+          <t>-74,2; 55,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 33,89</t>
+          <t>-66,31; 82,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 49,04</t>
+          <t>2,45; 296,22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-63,75; 52,04</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-63,69; 41,51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 253,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
